--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/39/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/39/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6146146146146146</v>
+        <v>0.2976297629762976</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234.2342342342343</v>
+        <v>1561.436143614362</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05545545545545546</v>
+        <v>0.06206620662066207</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5145145145145145</v>
+        <v>0.4236423642364237</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>450.4504504504505</v>
+        <v>406.6906690669067</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>881.881881881882</v>
+        <v>283.978397839784</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.8468468468469</v>
+        <v>460.5859585958596</v>
       </c>
     </row>
   </sheetData>
